--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-01_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-01_beg.xlsx
@@ -956,7 +956,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  So you’re finally here.
+    <t xml:space="preserve">[name="Talulah"]  So you're finally here.
 </t>
   </si>
   <si>
@@ -968,27 +968,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The storm hasn’t broken for days. The whole valley’s snowed over.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The raspberry bushes still haven’t budded. It’s like spring’ll never come.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’re trapped here, starving, dressed thin, and every silent day we pass waiting for the snow to melt drives us out of our minds.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You know, there’s something about it all I find odd.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’ve never once had a smooth time of it. Any better circumstances, and they’d go to shit fast the moment I get involved.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maybe it really is like the Lungmenites say. I’m a bad omen. Nothing good comes of being around me.
+    <t xml:space="preserve">The storm hasn't broken for days. The whole valley's snowed over.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The raspberry bushes still haven't budded. It's like spring'll never come.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're trapped here, starving, dressed thin, and every silent day we pass waiting for the snow to melt drives us out of our minds.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You know, there's something about it all I find odd.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We've never once had a smooth time of it. Any better circumstances, and they'd go to shit fast the moment I get involved.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe it really is like the Lungmenites say. I'm a bad omen. Nothing good comes of being around me.
 </t>
   </si>
   <si>
@@ -1012,15 +1012,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] Talulah, get back here! You can’t let them see you like that, for heaven’s sakes. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Don’t worry! I’m coming in now. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] Why won’t you just take those clothes off?! I’ve said it over and over, they’ll bring those damned bugs around! 
+    <t xml:space="preserve">[name="Old Woman"] Talulah, get back here! You can't let them see you like that, for heaven's sakes. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Don't worry! I'm coming in now. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Why won't you just take those clothes off?! I've said it over and over, they'll bring those damned bugs around! 
 </t>
   </si>
   <si>
@@ -1028,11 +1028,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I always wear my normal clothes, don’t I? I’ve only been wearing these lately because I had to be outside. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] You remember the gentleman who gave me these clothes, don’t you? The handsome one. He wouldn’t recognize me in anything else.
+    <t xml:space="preserve">[name="Talulah"] I always wear my normal clothes, don't I? I've only been wearing these lately because I had to be outside. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You remember the gentleman who gave me these clothes, don't you? The handsome one. He wouldn't recognize me in anything else.
 </t>
   </si>
   <si>
@@ -1040,11 +1040,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] Bah! Talulah... Talulah! A bald-faced liar, that’s what you are. What about everything you said before, then? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Oh. What was it I said before? I’ve forgotten. It was the same, wasn’t it? 
+    <t xml:space="preserve">[name="Old Woman"] Bah! Talulah... Talulah! A bald-faced liar, that's what you are. What about everything you said before, then? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Oh. What was it I said before? I've forgotten. It was the same, wasn't it? 
 </t>
   </si>
   <si>
@@ -1056,31 +1056,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] You’re all over the place... The time before that was a different story too!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Ah, so I can’t keep it straight? Your memory’s just wonderful. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] Don’t suck up to me! Always talking complete nonsense... I’ve got a foot in the grave, but look at you, running an old coot like me in circles. Don’t you feel even a bit of shame? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Ah. I’m sorry, that’s wrong of me. Really.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] Now sit down! Don’t bother with your clothes! Driving me up the wall! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] Chop, chop! Polish off that lunch already. You told me you’d be back by noon and the sun’s almost down!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] I left the soup on for you, but it’s nearly boiled dry now. You may as well be having your supper at this rate!
+    <t xml:space="preserve">[name="Old Woman"] You're all over the place... The time before that was a different story too!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Ah, so I can't keep it straight? Your memory's just wonderful. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Don't suck up to me! Always talking complete nonsense... I've got a foot in the grave, but look at you, running an old coot like me in circles. Don't you feel even a bit of shame? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Ah. I'm sorry, that's wrong of me. Really.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Now sit down! Don't bother with your clothes! Driving me up the wall! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Chop, chop! Polish off that lunch already. You told me you'd be back by noon and the sun's almost down!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] I left the soup on for you, but it's nearly boiled dry now. You may as well be having your supper at this rate!
 </t>
   </si>
   <si>
@@ -1088,7 +1088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] Get that down, you. The old man still wants you for something. Oh, that miserable drunk! Where’s he run off now...? You’ll have to find him yourself.  
+    <t xml:space="preserve">[name="Old Woman"] Get that down, you. The old man still wants you for something. Oh, that miserable drunk! Where's he run off now...? You'll have to find him yourself.  
 </t>
   </si>
   <si>
@@ -1100,11 +1100,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] I nearly got swindled once when I was younger... There’s nothing good about them!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Enough... I’ve heard this one a hundred times.
+    <t xml:space="preserve">[name="Old Woman"] I nearly got swindled once when I was younger... There's nothing good about them!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Enough... I've heard this one a hundred times.
 </t>
   </si>
   <si>
@@ -1112,7 +1112,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] Don’t rush like that! You’ll choke! 
+    <t xml:space="preserve">[name="Old Woman"] Don't rush like that! You'll choke! 
 </t>
   </si>
   <si>
@@ -1120,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] I still get chills thinking about it, Talulah. If you weren’t one of those good kids, the old man would’ve split your head open with a hatchet right then and there.
+    <t xml:space="preserve">[name="Old Woman"] I still get chills thinking about it, Talulah. If you weren't one of those good kids, the old man would've split your head open with a hatchet right then and there.
 </t>
   </si>
   <si>
@@ -1140,27 +1140,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] What a big knife it was! I’d never seen one so big in all my years! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] That was a sword... a sword! Not a knife. And don’t take it to clear out mountain paths again. That’s not what it’s for.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] And by the way! Didn’t we agree never to speak of that again? I’m getting upset.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] Whoops, my big mouth! Pfeh! Oh, Emperor above! I won’t say a word more, not a single word of it again! Oh, Your Majesty, forgive an old blabbermouth for her careless slip!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] That’s enough. Surely the Emperor’s in no place to care. He’s living it up just fine in his grand old city, and us? We can’t even find potatoes to eat next week. He couldn’t do anything for us, even if he wanted to.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] For that matter, I’m wondering if you even know who the Emperor is now?
+    <t xml:space="preserve">[name="Old Woman"] What a big knife it was! I'd never seen one so big in all my years! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] That was a sword... a sword! Not a knife. And don't take it to clear out mountain paths again. That's not what it's for.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And by the way! Didn't we agree never to speak of that again? I'm getting upset.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Whoops, my big mouth! Pfeh! Oh, Emperor above! I won't say a word more, not a single word of it again! Oh, Your Majesty, forgive an old blabbermouth for her careless slip!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] That's enough. Surely the Emperor's in no place to care. He's living it up just fine in his grand old city, and us? We can't even find potatoes to eat next week. He couldn't do anything for us, even if he wanted to.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] For that matter, I'm wondering if you even know who the Emperor is now?
 </t>
   </si>
   <si>
@@ -1172,15 +1172,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] Yes! We ran out a while ago. The salt jar went empty last night! Hmph, you’re just as wasteful as that old man! Eating all our salt... you’ll pickle yourselves dead!    
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] And Lord knows what in the world you’re up to when you leave for days at a time! You come back with nothing, no money, not even a thing to eat! A girl driving this house to ruin...!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I get it, I get it. I’m changing it out now.
+    <t xml:space="preserve">[name="Old Woman"] Yes! We ran out a while ago. The salt jar went empty last night! Hmph, you're just as wasteful as that old man! Eating all our salt... you'll pickle yourselves dead!    
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] And Lord knows what in the world you're up to when you leave for days at a time! You come back with nothing, no money, not even a thing to eat! A girl driving this house to ruin...!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I get it, I get it. I'm changing it out now.
 </t>
   </si>
   <si>
@@ -1188,11 +1188,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] Don’t bother. I had a chat with Alina just a minute ago. She’ll bring us some salt. Now look at you! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] Alina is a lot more reliable than you! She likes her studying, she gets hands-on with her work, and you still can’t even sew your own clothes!
+    <t xml:space="preserve">[name="Old Woman"] Don't bother. I had a chat with Alina just a minute ago. She'll bring us some salt. Now look at you! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] Alina is a lot more reliable than you! She likes her studying, she gets hands-on with her work, and you still can't even sew your own clothes!
 </t>
   </si>
   <si>
@@ -1208,15 +1208,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] So what ambitions have you got? Ought to find someone good, a strong lad ‘n’ lass! If we leave you to do the work, mossoat’ll be rotting underground before long.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I haven’t slacked once on the yearly farmwork.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] You’ve only been here how many years?!
+    <t xml:space="preserve">[name="Old Woman"] So what ambitions have you got? Ought to find someone good, a strong lad 'n' lass! If we leave you to do the work, mossoat'll be rotting underground before long.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I haven't slacked once on the yearly farmwork.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] You've only been here how many years?!
 </t>
   </si>
   <si>
@@ -1224,23 +1224,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] Alina! You need to help me talk some sense into her, or else she’ll keep going on like this, and... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] And there’s not much wrong with that.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Oh, at last, you’re here. You’re the only one who knows how to quiet her down. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] So you’re all grown up, are you! Think you’re a noble just because you draped yourself in some uniform you got from Lord-knows-where? Small as you are, you put on airs anyway! Where’d you learn that...?!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] I have work to do! You two eat up. If you’re hungry, Alina. Talulah, don’t eat too much! Leave some for Alina.    
+    <t xml:space="preserve">[name="Old Woman"] Alina! You need to help me talk some sense into her, or else she'll keep going on like this, and... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] And there's not much wrong with that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Oh, at last, you're here. You're the only one who knows how to quiet her down. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] So you're all grown up, are you! Think you're a noble just because you draped yourself in some uniform you got from Lord-knows-where? Small as you are, you put on airs anyway! Where'd you learn that...?!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] I have work to do! You two eat up. If you're hungry, Alina. Talulah, don't eat too much! Leave some for Alina.    
 </t>
   </si>
   <si>
@@ -1248,15 +1248,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] I’ll be fine, Ma’am. Thank you. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] Talulah, I’ve brought some salt over. The salt merchant will be here next week, so remember to buy some then. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Thank you so, so much, Alina. Without you, she’d be going on for another twenty minutes. 
+    <t xml:space="preserve">[name="Alina"] I'll be fine, Ma'am. Thank you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Talulah, I've brought some salt over. The salt merchant will be here next week, so remember to buy some then. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Thank you so, so much, Alina. Without you, she'd be going on for another twenty minutes. 
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] Where’d you go this time?
+    <t xml:space="preserve">[name="Alina"] Where'd you go this time?
 </t>
   </si>
   <si>
@@ -1280,11 +1280,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] This brush type... This isn’t by the local painters.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] The old painter in Shmyr only knows hard strokes. I can’t imagine him using a feather brush. These soft tips, this was a nighteye’s plumage... from before it molted. 
+    <t xml:space="preserve">[name="Alina"] This brush type... This isn't by the local painters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] The old painter in Shmyr only knows hard strokes. I can't imagine him using a feather brush. These soft tips, this was a nighteye's plumage... from before it molted. 
 </t>
   </si>
   <si>
@@ -1292,19 +1292,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] ...Can’t hide anything from you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] Why hide things from me? I’m not Gendarmerie. Or a tax collector. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] You don’t need to know about any of it. It’s danger all around there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] And you’re in the thick of it, then?
+    <t xml:space="preserve">[name="Talulah"] ...Can't hide anything from you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Why hide things from me? I'm not Gendarmerie. Or a tax collector. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] You don't need to know about any of it. It's danger all around there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] And you're in the thick of it, then?
 </t>
   </si>
   <si>
@@ -1312,19 +1312,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">The deer facing her seemed almost supernatural. The white-haired Draco felt, deep down, that if you didn’t want Alina to know what was happening, your best option was not to let those things happen at all. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I’m just saying... Alina, you don’t need to worry about th—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ursus Farmer"] Trouble! There’s trouble...! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Old Woman"] What’s all the racket about?! Storming in without even knocking! I don’t know what I’ll do if the bolt’s broken!  
+    <t xml:space="preserve">The deer facing her seemed almost supernatural. The white-haired Draco felt, deep down, that if you didn't want Alina to know what was happening, your best option was not to let those things happen at all. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I'm just saying... Alina, you don't need to worry about th—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ursus Farmer"] Trouble! There's trouble...! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Old Woman"] What's all the racket about?! Storming in without even knocking! I don't know what I'll do if the bolt's broken!  
 </t>
   </si>
   <si>
@@ -1344,7 +1344,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Woman"] Oh, the knife! Alina, don’t let her wave that thing around!  
+    <t xml:space="preserve">[name="Old Woman"] Oh, the knife! Alina, don't let her wave that thing around!  
 </t>
   </si>
   <si>
@@ -1352,11 +1352,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"] You’ve already come searching before! What’re you here for now?! We can’t even afford your taxes anymore! What more do you want to wring out of us?! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"] This is a routine inspection! We don’t care how you try to sweeten the pot this time, we’re mandated to inspect every two years... If we don’t carry this out, then we’re all in for the whip. 
+    <t xml:space="preserve">[name="Old Man"] You've already come searching before! What're you here for now?! We can't even afford your taxes anymore! What more do you want to wring out of us?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Patrol Unit"] This is a routine inspection! We don't care how you try to sweeten the pot this time, we're mandated to inspect every two years... If we don't carry this out, then we're all in for the whip. 
 </t>
   </si>
   <si>
@@ -1364,7 +1364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"] We can’t give anything anymore! We’ve got nothing to give! No money, no jewelry, not even any more food! 
+    <t xml:space="preserve">[name="Old Man"] We can't give anything anymore! We've got nothing to give! No money, no jewelry, not even any more food! 
 </t>
   </si>
   <si>
@@ -1376,7 +1376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Old Man"] Sir, sir! Officer, sir, we’ve got nothing left to give, honest to heaven! If you need to take something with you, just take me, for God’s sakes!  
+    <t xml:space="preserve">[name="Old Man"] Sir, sir! Officer, sir, we've got nothing left to give, honest to heaven! If you need to take something with you, just take me, for God's sakes!  
 </t>
   </si>
   <si>
@@ -1400,7 +1400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"] —Hey. Your clothes there. Where’d you come from? No farmer could afford to wear those.  
+    <t xml:space="preserve">[name="Infected Patrol Unit"] —Hey. Your clothes there. Where'd you come from? No farmer could afford to wear those.  
 </t>
   </si>
   <si>
@@ -1408,7 +1408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] I’m asking. What are you doing?
+    <t xml:space="preserve">[name="Talulah"] I'm asking. What are you doing?
 </t>
   </si>
   <si>
@@ -1416,7 +1416,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected Patrol Unit"] Not a step closer! What do you think you’re doing? Have you seen your eyes...? Hah, don’t you look terrifying!  
+    <t xml:space="preserve">[name="Infected Patrol Unit"] Not a step closer! What do you think you're doing? Have you seen your eyes...? Hah, don't you look terrifying!  
 </t>
   </si>
   <si>
